--- a/Excel Files/Scenario 1/Expected Data/TC147/Expected Sales Order.xlsx
+++ b/Excel Files/Scenario 1/Expected Data/TC147/Expected Sales Order.xlsx
@@ -14,7 +14,6 @@
   </bookViews>
   <sheets>
     <sheet name="Order Info" sheetId="4" r:id="rId1"/>
-    <sheet name="Plan" sheetId="8" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="127">
   <si>
     <t>#{Label_Title}</t>
   </si>
@@ -340,7 +339,7 @@
     <t>Islamic Republic of Pakistan,PK-CUS</t>
   </si>
   <si>
-    <t>sCB101-2311001</t>
+    <t>sDB104-2311001</t>
   </si>
   <si>
     <t>Firm</t>
@@ -352,13 +351,13 @@
     <t>Weekly</t>
   </si>
   <si>
-    <t>06 Nov 2023 - 12 Nov 2023</t>
+    <t>27 Nov 2023 - 03 Dec 2023</t>
   </si>
   <si>
     <t>By Invoice Date</t>
   </si>
   <si>
-    <t>13 Nov ~ 19 Nov</t>
+    <t>04 Dec ~ 10 Dec</t>
   </si>
   <si>
     <t>FC Qty 1</t>
@@ -373,7 +372,7 @@
     <t>b00001</t>
   </si>
   <si>
-    <t>cCB101-2311001</t>
+    <t>cDB104-2311001</t>
   </si>
   <si>
     <t>PK-CUS-POC</t>
@@ -385,7 +384,7 @@
     <t>USD</t>
   </si>
   <si>
-    <t>Completed</t>
+    <t>Processing</t>
   </si>
   <si>
     <t>s1002</t>
@@ -430,9 +429,6 @@
     <t>b00005</t>
   </si>
   <si>
-    <t>Processing</t>
-  </si>
-  <si>
     <t>s1006</t>
   </si>
   <si>
@@ -446,15 +442,6 @@
   </si>
   <si>
     <t>X Electronically Approved: Signature Available upon Request</t>
-  </si>
-  <si>
-    <t>Sales Order No.:sCB101-2311001</t>
-  </si>
-  <si>
-    <t>CNTW-SUP-POC</t>
-  </si>
-  <si>
-    <t>MY-ELA-SUP</t>
   </si>
 </sst>
 </file>
@@ -9584,7 +9571,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="16" max="16384" style="19" width="12.625" collapsed="true"/>
+    <col min="23" max="16384" style="19" width="12.625" collapsed="true"/>
+    <col min="22" max="22" style="19" width="18.75" collapsed="true" customWidth="true"/>
+    <col min="21" max="21" style="19" width="18.75" collapsed="true" customWidth="true"/>
+    <col min="20" max="20" style="19" width="18.75" collapsed="true" customWidth="true"/>
+    <col min="16" max="18" style="19" width="12.625" collapsed="true"/>
+    <col min="19" max="19" style="19" width="18.75" collapsed="true" customWidth="true"/>
     <col min="15" max="15" style="19" width="18.75" collapsed="true" customWidth="true"/>
     <col min="1" max="1" customWidth="true" style="19" width="3.75" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="19" width="26.75" collapsed="true"/>
@@ -9948,7 +9940,7 @@
         <v>60</v>
       </c>
       <c r="C18" s="29" t="n">
-        <v>45231.0</v>
+        <v>45250.0</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -10050,6 +10042,14 @@
       <c r="R21" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="S21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="22" spans="2:16" ht="25.5" customHeight="1">
       <c r="B22" s="32"/>
@@ -10071,6 +10071,10 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" s="32"/>
@@ -10090,7 +10094,19 @@
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="2" t="n">
-        <v>45238.0</v>
+        <v>45251.0</v>
+      </c>
+      <c r="S23" s="2" t="n">
+        <v>45301.0</v>
+      </c>
+      <c r="T23" s="2" t="n">
+        <v>45312.0</v>
+      </c>
+      <c r="U23" s="2" t="n">
+        <v>45343.0</v>
+      </c>
+      <c r="V23" s="2" t="n">
+        <v>45273.0</v>
       </c>
     </row>
     <row r="24" spans="2:16">
@@ -10137,12 +10153,20 @@
         <v>107</v>
       </c>
       <c r="P24" s="42" t="n">
-        <v>1620.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" s="42" t="n">
         <v>0.0</v>
       </c>
       <c r="R24" s="42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S24" s="42" t="n">
+        <v>1620.0</v>
+      </c>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42" t="n">
         <v>1620.0</v>
       </c>
     </row>
@@ -10190,12 +10214,20 @@
         <v>107</v>
       </c>
       <c r="P25" s="42" t="n">
-        <v>1620.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" s="42" t="n">
         <v>0.0</v>
       </c>
       <c r="R25" s="42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S25" s="42" t="n">
+        <v>1620.0</v>
+      </c>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42" t="n">
         <v>1620.0</v>
       </c>
     </row>
@@ -10251,6 +10283,12 @@
       <c r="R26" s="42" t="n">
         <v>0.0</v>
       </c>
+      <c r="S26" s="42" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
     </row>
     <row r="27">
       <c r="B27" s="25" t="s">
@@ -10304,6 +10342,12 @@
       <c r="R27" s="42" t="n">
         <v>0.0</v>
       </c>
+      <c r="S27" s="42" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
     </row>
     <row r="28">
       <c r="B28" s="25" t="s">
@@ -10346,27 +10390,37 @@
         <v>1000.0</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="P28" s="42" t="n">
-        <v>600.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q28" s="42" t="n">
         <v>0.0</v>
       </c>
       <c r="R28" s="42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S28" s="42" t="n">
         <v>600.0</v>
+      </c>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="V28" s="42" t="n">
+        <v>800.0</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="D29" s="25" t="s">
         <v>124</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>125</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>103</v>
@@ -10410,15 +10464,23 @@
       <c r="R29" s="42" t="n">
         <v>0.0</v>
       </c>
+      <c r="S29" s="42" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="T29" s="42" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
     </row>
     <row r="32">
-      <c r="P32" s="41" t="s">
-        <v>126</v>
+      <c r="T32" s="41" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="33">
-      <c r="P33" s="41" t="s">
-        <v>127</v>
+      <c r="T33" s="41" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -10443,434 +10505,8 @@
     <mergeCell ref="P21:P22"/>
     <mergeCell ref="Q21:Q22"/>
     <mergeCell ref="R21:R22"/>
-  </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A601D6F5-B406-4775-8730-473261825DE9}">
-  <dimension ref="A1:P8"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="17" max="16384" style="19" width="12.625" collapsed="true"/>
-    <col min="16" max="16" style="19" width="18.75" collapsed="true" customWidth="true"/>
-    <col min="15" max="15" style="19" width="18.75" collapsed="true" customWidth="true"/>
-    <col min="14" max="14" style="19" width="18.75" collapsed="true" customWidth="true"/>
-    <col min="13" max="13" style="19" width="18.75" collapsed="true" customWidth="true"/>
-    <col min="1" max="1" customWidth="true" style="19" width="3.75" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="19" width="26.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="19" width="32.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="19" width="12.75" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="19" width="40.75" collapsed="true"/>
-    <col min="6" max="10" customWidth="true" style="19" width="18.75" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="19" width="18.75" collapsed="true"/>
-    <col min="12" max="12" style="19" width="18.75" collapsed="true" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1">
-      <c r="B1" s="4"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="13"/>
-    </row>
-    <row r="2" spans="1:16" s="18" customFormat="1" ht="23.25">
-      <c r="A2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="9"/>
-    </row>
-    <row r="3" spans="1:16" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="B3" s="17"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:16" s="10" customFormat="1">
-      <c r="B4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="B5" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="2" t="n">
-        <v>45238.0</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>45282.0</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>45293.0</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>45306.0</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>45236.0</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>45240.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="B8" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H8" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I8" s="42" t="n">
-        <v>1620.0</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="K8" s="42" t="n">
-        <v>1620.0</v>
-      </c>
-      <c r="L8" s="42" t="n">
-        <v>1620.0</v>
-      </c>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H9" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I9" s="42" t="n">
-        <v>1620.0</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="42" t="n">
-        <v>1620.0</v>
-      </c>
-      <c r="L9" s="42" t="n">
-        <v>1620.0</v>
-      </c>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="42" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H10" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I10" s="42" t="n">
-        <v>620.0</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" s="42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L10" s="42" t="n">
-        <v>620.0</v>
-      </c>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="42" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H11" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I11" s="42" t="n">
-        <v>620.0</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" s="42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L11" s="42" t="n">
-        <v>620.0</v>
-      </c>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="42" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H12" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I12" s="42" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="K12" s="42" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="L12" s="42" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="O12" s="42" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="P12" s="42" t="n">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" s="42" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H13" s="42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="I13" s="42" t="n">
-        <v>820.0</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="K13" s="42" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L13" s="42" t="n">
-        <v>620.0</v>
-      </c>
-      <c r="M13" s="42" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-    </row>
-  </sheetData>
-  <sheetProtection insertColumns="0" deleteRows="0"/>
-  <mergeCells count="9">
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="S21:U22"/>
+    <mergeCell ref="V21:V22"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
